--- a/Modules/Back/results.xlsx
+++ b/Modules/Back/results.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4639,6 +4639,202 @@
         <v>9.390625</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>87.08</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C302" t="n">
+        <v>102.1868879795074</v>
+      </c>
+      <c r="D302" t="n">
+        <v>43.71875</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C303" t="n">
+        <v>19.191241979599</v>
+      </c>
+      <c r="D303" t="n">
+        <v>12.90625</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C304" t="n">
+        <v>10.66755151748657</v>
+      </c>
+      <c r="D304" t="n">
+        <v>4.765625</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C305" t="n">
+        <v>9.013476848602295</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.84375</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C306" t="n">
+        <v>7.183639049530029</v>
+      </c>
+      <c r="D306" t="n">
+        <v>3.5625</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C307" t="n">
+        <v>7.799760103225708</v>
+      </c>
+      <c r="D307" t="n">
+        <v>3.734375</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C308" t="n">
+        <v>6.732911109924316</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C309" t="n">
+        <v>6.557169914245605</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2.859375</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C310" t="n">
+        <v>7.377985239028931</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3.296875</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C311" t="n">
+        <v>7.693191289901733</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3.203125</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C312" t="n">
+        <v>15.38188076019287</v>
+      </c>
+      <c r="D312" t="n">
+        <v>4.921875</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C313" t="n">
+        <v>100.8638865947723</v>
+      </c>
+      <c r="D313" t="n">
+        <v>13.921875</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>39.44</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C314" t="n">
+        <v>30.04665327072144</v>
+      </c>
+      <c r="D314" t="n">
+        <v>14.984375</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C315" t="n">
+        <v>32.8717143535614</v>
+      </c>
+      <c r="D315" t="n">
+        <v>13.296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
